--- a/data/yahoofinance/ZROZ.xlsx
+++ b/data/yahoofinance/ZROZ.xlsx
@@ -442,7 +442,7 @@
         <v>84.22000122070312</v>
       </c>
       <c r="F2">
-        <v>82.54647827148438</v>
+        <v>81.78530883789062</v>
       </c>
       <c r="G2">
         <v>256400</v>
@@ -465,7 +465,7 @@
         <v>84.69999694824219</v>
       </c>
       <c r="F3">
-        <v>83.01693725585938</v>
+        <v>82.25142669677734</v>
       </c>
       <c r="G3">
         <v>330600</v>
@@ -488,7 +488,7 @@
         <v>82.80000305175781</v>
       </c>
       <c r="F4">
-        <v>81.15470123291016</v>
+        <v>80.40636444091797</v>
       </c>
       <c r="G4">
         <v>363300</v>
@@ -511,7 +511,7 @@
         <v>81.45999908447266</v>
       </c>
       <c r="F5">
-        <v>79.84132385253906</v>
+        <v>79.1051025390625</v>
       </c>
       <c r="G5">
         <v>399800</v>
@@ -534,7 +534,7 @@
         <v>82.58999633789062</v>
       </c>
       <c r="F6">
-        <v>80.94886779785156</v>
+        <v>80.20242309570312</v>
       </c>
       <c r="G6">
         <v>292700</v>
@@ -557,7 +557,7 @@
         <v>81.75</v>
       </c>
       <c r="F7">
-        <v>80.12555694580078</v>
+        <v>79.38671112060547</v>
       </c>
       <c r="G7">
         <v>415600</v>
@@ -580,7 +580,7 @@
         <v>81.01000213623047</v>
       </c>
       <c r="F8">
-        <v>79.40026092529297</v>
+        <v>78.66810607910156</v>
       </c>
       <c r="G8">
         <v>218900</v>
@@ -603,7 +603,7 @@
         <v>81.45999908447266</v>
       </c>
       <c r="F9">
-        <v>79.84132385253906</v>
+        <v>79.1051025390625</v>
       </c>
       <c r="G9">
         <v>193200</v>
@@ -626,7 +626,7 @@
         <v>80.91999816894531</v>
       </c>
       <c r="F10">
-        <v>79.31204223632812</v>
+        <v>78.58070373535156</v>
       </c>
       <c r="G10">
         <v>340500</v>
@@ -649,7 +649,7 @@
         <v>78.77999877929688</v>
       </c>
       <c r="F11">
-        <v>77.21457672119141</v>
+        <v>76.50257110595703</v>
       </c>
       <c r="G11">
         <v>336600</v>
@@ -672,7 +672,7 @@
         <v>78.72000122070312</v>
       </c>
       <c r="F12">
-        <v>77.15576171875</v>
+        <v>76.44430541992188</v>
       </c>
       <c r="G12">
         <v>259600</v>
@@ -695,7 +695,7 @@
         <v>77.45999908447266</v>
       </c>
       <c r="F13">
-        <v>75.92080688476562</v>
+        <v>75.22073364257812</v>
       </c>
       <c r="G13">
         <v>294200</v>
@@ -718,7 +718,7 @@
         <v>77.84999847412109</v>
       </c>
       <c r="F14">
-        <v>76.30305480957031</v>
+        <v>75.59945678710938</v>
       </c>
       <c r="G14">
         <v>459700</v>
@@ -741,7 +741,7 @@
         <v>78.62000274658203</v>
       </c>
       <c r="F15">
-        <v>77.05776214599609</v>
+        <v>76.34719848632812</v>
       </c>
       <c r="G15">
         <v>360800</v>
@@ -764,7 +764,7 @@
         <v>77.5</v>
       </c>
       <c r="F16">
-        <v>75.96000671386719</v>
+        <v>75.25957489013672</v>
       </c>
       <c r="G16">
         <v>194500</v>
@@ -787,7 +787,7 @@
         <v>76.80000305175781</v>
       </c>
       <c r="F17">
-        <v>75.27392578125</v>
+        <v>74.57981109619141</v>
       </c>
       <c r="G17">
         <v>351200</v>
@@ -810,7 +810,7 @@
         <v>77.43000030517578</v>
       </c>
       <c r="F18">
-        <v>75.89139556884766</v>
+        <v>75.19159698486328</v>
       </c>
       <c r="G18">
         <v>228100</v>
@@ -833,7 +833,7 @@
         <v>77.29000091552734</v>
       </c>
       <c r="F19">
-        <v>75.75418090820312</v>
+        <v>75.05564117431641</v>
       </c>
       <c r="G19">
         <v>245100</v>
@@ -856,7 +856,7 @@
         <v>78.62000274658203</v>
       </c>
       <c r="F20">
-        <v>77.05776214599609</v>
+        <v>76.34719848632812</v>
       </c>
       <c r="G20">
         <v>306700</v>
@@ -879,7 +879,7 @@
         <v>79.88999938964844</v>
       </c>
       <c r="F21">
-        <v>78.30252075195312</v>
+        <v>77.58048248291016</v>
       </c>
       <c r="G21">
         <v>345900</v>
@@ -902,7 +902,7 @@
         <v>80.61000061035156</v>
       </c>
       <c r="F22">
-        <v>79.00820922851562</v>
+        <v>78.27967071533203</v>
       </c>
       <c r="G22">
         <v>383300</v>
@@ -925,7 +925,7 @@
         <v>83.37999725341797</v>
       </c>
       <c r="F23">
-        <v>81.72316741943359</v>
+        <v>80.96958923339844</v>
       </c>
       <c r="G23">
         <v>431700</v>
@@ -948,7 +948,7 @@
         <v>80.81999969482422</v>
       </c>
       <c r="F24">
-        <v>79.21404266357422</v>
+        <v>78.48360443115234</v>
       </c>
       <c r="G24">
         <v>623800</v>
@@ -971,7 +971,7 @@
         <v>78.30999755859375</v>
       </c>
       <c r="F25">
-        <v>76.75390625</v>
+        <v>76.04615020751953</v>
       </c>
       <c r="G25">
         <v>836000</v>
@@ -994,7 +994,7 @@
         <v>79.20999908447266</v>
       </c>
       <c r="F26">
-        <v>77.63603210449219</v>
+        <v>76.92014312744141</v>
       </c>
       <c r="G26">
         <v>158300</v>
@@ -1017,7 +1017,7 @@
         <v>78.70999908447266</v>
       </c>
       <c r="F27">
-        <v>77.14596557617188</v>
+        <v>76.43460083007812</v>
       </c>
       <c r="G27">
         <v>178800</v>
@@ -1040,7 +1040,7 @@
         <v>78.04000091552734</v>
       </c>
       <c r="F28">
-        <v>76.48928070068359</v>
+        <v>75.78396606445312</v>
       </c>
       <c r="G28">
         <v>115800</v>
@@ -1063,7 +1063,7 @@
         <v>77.83000183105469</v>
       </c>
       <c r="F29">
-        <v>76.28345489501953</v>
+        <v>75.58003997802734</v>
       </c>
       <c r="G29">
         <v>240500</v>
@@ -1086,7 +1086,7 @@
         <v>77.94000244140625</v>
       </c>
       <c r="F30">
-        <v>76.39127349853516</v>
+        <v>75.68685913085938</v>
       </c>
       <c r="G30">
         <v>152700</v>
@@ -1109,7 +1109,7 @@
         <v>76.23000335693359</v>
       </c>
       <c r="F31">
-        <v>74.71524810791016</v>
+        <v>74.02629089355469</v>
       </c>
       <c r="G31">
         <v>331700</v>
@@ -1132,7 +1132,7 @@
         <v>76.63999938964844</v>
       </c>
       <c r="F32">
-        <v>75.11709594726562</v>
+        <v>74.4244384765625</v>
       </c>
       <c r="G32">
         <v>171700</v>
@@ -1155,7 +1155,7 @@
         <v>77.23000335693359</v>
       </c>
       <c r="F33">
-        <v>75.69538116455078</v>
+        <v>74.99738311767578</v>
       </c>
       <c r="G33">
         <v>242900</v>
@@ -1178,7 +1178,7 @@
         <v>76.72000122070312</v>
       </c>
       <c r="F34">
-        <v>75.19551086425781</v>
+        <v>74.50212860107422</v>
       </c>
       <c r="G34">
         <v>387600</v>
@@ -1201,7 +1201,7 @@
         <v>76.56999969482422</v>
       </c>
       <c r="F35">
-        <v>75.04848480224609</v>
+        <v>74.35646057128906</v>
       </c>
       <c r="G35">
         <v>122200</v>
@@ -1224,7 +1224,7 @@
         <v>75.84999847412109</v>
       </c>
       <c r="F36">
-        <v>74.34279632568359</v>
+        <v>73.65727996826172</v>
       </c>
       <c r="G36">
         <v>212800</v>
@@ -1247,7 +1247,7 @@
         <v>76.47000122070312</v>
       </c>
       <c r="F37">
-        <v>74.95047760009766</v>
+        <v>74.25935363769531</v>
       </c>
       <c r="G37">
         <v>159200</v>
@@ -1270,7 +1270,7 @@
         <v>78.33000183105469</v>
       </c>
       <c r="F38">
-        <v>76.77352142333984</v>
+        <v>76.06558227539062</v>
       </c>
       <c r="G38">
         <v>338800</v>
@@ -1293,7 +1293,7 @@
         <v>77.91000366210938</v>
       </c>
       <c r="F39">
-        <v>76.36186218261719</v>
+        <v>75.65773010253906</v>
       </c>
       <c r="G39">
         <v>126300</v>
@@ -1316,7 +1316,7 @@
         <v>77.01000213623047</v>
       </c>
       <c r="F40">
-        <v>75.47975158691406</v>
+        <v>74.78374481201172</v>
       </c>
       <c r="G40">
         <v>122200</v>
@@ -1339,7 +1339,7 @@
         <v>77.77999877929688</v>
       </c>
       <c r="F41">
-        <v>76.23444366455078</v>
+        <v>75.53147888183594</v>
       </c>
       <c r="G41">
         <v>241600</v>
@@ -1362,7 +1362,7 @@
         <v>78.47000122070312</v>
       </c>
       <c r="F42">
-        <v>76.91073608398438</v>
+        <v>76.2015380859375</v>
       </c>
       <c r="G42">
         <v>552100</v>
@@ -1385,7 +1385,7 @@
         <v>79.27999877929688</v>
       </c>
       <c r="F43">
-        <v>77.70464324951172</v>
+        <v>76.98812103271484</v>
       </c>
       <c r="G43">
         <v>191400</v>
@@ -1408,7 +1408,7 @@
         <v>78.81999969482422</v>
       </c>
       <c r="F44">
-        <v>77.25377655029297</v>
+        <v>76.54141998291016</v>
       </c>
       <c r="G44">
         <v>216300</v>
@@ -1431,7 +1431,7 @@
         <v>80.45999908447266</v>
       </c>
       <c r="F45">
-        <v>78.86119079589844</v>
+        <v>78.13400268554688</v>
       </c>
       <c r="G45">
         <v>300200</v>
@@ -1454,7 +1454,7 @@
         <v>81.11000061035156</v>
       </c>
       <c r="F46">
-        <v>79.49827575683594</v>
+        <v>78.76522064208984</v>
       </c>
       <c r="G46">
         <v>206100</v>
@@ -1477,7 +1477,7 @@
         <v>80.80000305175781</v>
       </c>
       <c r="F47">
-        <v>79.19444274902344</v>
+        <v>78.46418762207031</v>
       </c>
       <c r="G47">
         <v>231500</v>
@@ -1500,7 +1500,7 @@
         <v>80.58999633789062</v>
       </c>
       <c r="F48">
-        <v>78.98860168457031</v>
+        <v>78.26024627685547</v>
       </c>
       <c r="G48">
         <v>264800</v>
@@ -1523,7 +1523,7 @@
         <v>80.44999694824219</v>
       </c>
       <c r="F49">
-        <v>78.85138702392578</v>
+        <v>78.12429046630859</v>
       </c>
       <c r="G49">
         <v>172600</v>
@@ -1546,7 +1546,7 @@
         <v>79.48999786376953</v>
       </c>
       <c r="F50">
-        <v>77.91046142578125</v>
+        <v>77.19204711914062</v>
       </c>
       <c r="G50">
         <v>292100</v>
@@ -1569,7 +1569,7 @@
         <v>78.86000061035156</v>
       </c>
       <c r="F51">
-        <v>77.29298400878906</v>
+        <v>76.58026123046875</v>
       </c>
       <c r="G51">
         <v>148700</v>
@@ -1592,7 +1592,7 @@
         <v>76.98999786376953</v>
       </c>
       <c r="F52">
-        <v>75.46014404296875</v>
+        <v>74.76432037353516</v>
       </c>
       <c r="G52">
         <v>247600</v>
@@ -1615,7 +1615,7 @@
         <v>77.23999786376953</v>
       </c>
       <c r="F53">
-        <v>75.70517730712891</v>
+        <v>75.00709533691406</v>
       </c>
       <c r="G53">
         <v>286400</v>
@@ -1638,7 +1638,7 @@
         <v>76.76000213623047</v>
       </c>
       <c r="F54">
-        <v>75.23471832275391</v>
+        <v>74.54096984863281</v>
       </c>
       <c r="G54">
         <v>160300</v>
@@ -1661,7 +1661,7 @@
         <v>76.91999816894531</v>
       </c>
       <c r="F55">
-        <v>75.39153289794922</v>
+        <v>74.69634246826172</v>
       </c>
       <c r="G55">
         <v>145900</v>
@@ -1684,7 +1684,7 @@
         <v>76.72000122070312</v>
       </c>
       <c r="F56">
-        <v>75.19551086425781</v>
+        <v>74.50212860107422</v>
       </c>
       <c r="G56">
         <v>309900</v>
@@ -1707,7 +1707,7 @@
         <v>76.94999694824219</v>
       </c>
       <c r="F57">
-        <v>75.42092895507812</v>
+        <v>74.72547149658203</v>
       </c>
       <c r="G57">
         <v>278600</v>
@@ -1730,7 +1730,7 @@
         <v>78.19000244140625</v>
       </c>
       <c r="F58">
-        <v>76.63630676269531</v>
+        <v>75.92963409423828</v>
       </c>
       <c r="G58">
         <v>168300</v>
@@ -1753,7 +1753,7 @@
         <v>77.51000213623047</v>
       </c>
       <c r="F59">
-        <v>75.96981811523438</v>
+        <v>75.269287109375</v>
       </c>
       <c r="G59">
         <v>223100</v>
@@ -1776,7 +1776,7 @@
         <v>78.01999664306641</v>
       </c>
       <c r="F60">
-        <v>76.46967315673828</v>
+        <v>75.76454162597656</v>
       </c>
       <c r="G60">
         <v>200200</v>
@@ -1799,7 +1799,7 @@
         <v>79.08999633789062</v>
       </c>
       <c r="F61">
-        <v>77.51840972900391</v>
+        <v>76.80360412597656</v>
       </c>
       <c r="G61">
         <v>219900</v>
@@ -1822,7 +1822,7 @@
         <v>79.25</v>
       </c>
       <c r="F62">
-        <v>77.67523193359375</v>
+        <v>76.95899200439453</v>
       </c>
       <c r="G62">
         <v>109200</v>
@@ -1845,7 +1845,7 @@
         <v>75.98000335693359</v>
       </c>
       <c r="F63">
-        <v>75.20087432861328</v>
+        <v>74.50743865966797</v>
       </c>
       <c r="G63">
         <v>383600</v>
@@ -1868,7 +1868,7 @@
         <v>75.37999725341797</v>
       </c>
       <c r="F64">
-        <v>74.60702514648438</v>
+        <v>73.9190673828125</v>
       </c>
       <c r="G64">
         <v>503800</v>
@@ -1891,7 +1891,7 @@
         <v>75.23999786376953</v>
       </c>
       <c r="F65">
-        <v>74.46846008300781</v>
+        <v>73.78178405761719</v>
       </c>
       <c r="G65">
         <v>326100</v>
@@ -1914,7 +1914,7 @@
         <v>76.05999755859375</v>
       </c>
       <c r="F66">
-        <v>75.28005218505859</v>
+        <v>74.58589172363281</v>
       </c>
       <c r="G66">
         <v>227100</v>
@@ -1937,7 +1937,7 @@
         <v>74.44000244140625</v>
       </c>
       <c r="F67">
-        <v>73.67666625976562</v>
+        <v>72.99729156494141</v>
       </c>
       <c r="G67">
         <v>396800</v>
@@ -1960,7 +1960,7 @@
         <v>74.51000213623047</v>
       </c>
       <c r="F68">
-        <v>73.74594879150391</v>
+        <v>73.06593322753906</v>
       </c>
       <c r="G68">
         <v>121700</v>
@@ -1983,7 +1983,7 @@
         <v>75.51000213623047</v>
       </c>
       <c r="F69">
-        <v>74.73569488525391</v>
+        <v>74.04655456542969</v>
       </c>
       <c r="G69">
         <v>136800</v>
@@ -2006,7 +2006,7 @@
         <v>73.30999755859375</v>
       </c>
       <c r="F70">
-        <v>72.55825042724609</v>
+        <v>71.88918304443359</v>
       </c>
       <c r="G70">
         <v>658000</v>
@@ -2029,7 +2029,7 @@
         <v>72.66999816894531</v>
       </c>
       <c r="F71">
-        <v>71.92481231689453</v>
+        <v>71.26158905029297</v>
       </c>
       <c r="G71">
         <v>1023400</v>
@@ -2052,7 +2052,7 @@
         <v>73.25</v>
       </c>
       <c r="F72">
-        <v>72.49886322021484</v>
+        <v>71.83034515380859</v>
       </c>
       <c r="G72">
         <v>642200</v>
@@ -2075,7 +2075,7 @@
         <v>71.40000152587891</v>
       </c>
       <c r="F73">
-        <v>70.66783905029297</v>
+        <v>70.01620483398438</v>
       </c>
       <c r="G73">
         <v>647700</v>
@@ -2098,7 +2098,7 @@
         <v>70.65000152587891</v>
       </c>
       <c r="F74">
-        <v>69.92552947998047</v>
+        <v>69.28073883056641</v>
       </c>
       <c r="G74">
         <v>314900</v>
@@ -2121,7 +2121,7 @@
         <v>71.76999664306641</v>
       </c>
       <c r="F75">
-        <v>71.03404235839844</v>
+        <v>70.3790283203125</v>
       </c>
       <c r="G75">
         <v>210400</v>
@@ -2144,7 +2144,7 @@
         <v>71.38999938964844</v>
       </c>
       <c r="F76">
-        <v>70.65793609619141</v>
+        <v>70.00639343261719</v>
       </c>
       <c r="G76">
         <v>128900</v>
@@ -2167,7 +2167,7 @@
         <v>71.66000366210938</v>
       </c>
       <c r="F77">
-        <v>70.9251708984375</v>
+        <v>70.27116394042969</v>
       </c>
       <c r="G77">
         <v>113800</v>
@@ -2190,7 +2190,7 @@
         <v>71.5</v>
       </c>
       <c r="F78">
-        <v>70.76681518554688</v>
+        <v>70.11426544189453</v>
       </c>
       <c r="G78">
         <v>147500</v>
@@ -2213,7 +2213,7 @@
         <v>71.48000335693359</v>
       </c>
       <c r="F79">
-        <v>70.74701690673828</v>
+        <v>70.09465026855469</v>
       </c>
       <c r="G79">
         <v>204800</v>
@@ -2236,7 +2236,7 @@
         <v>70.51000213623047</v>
       </c>
       <c r="F80">
-        <v>69.78696441650391</v>
+        <v>69.14345550537109</v>
       </c>
       <c r="G80">
         <v>182900</v>
@@ -2259,7 +2259,7 @@
         <v>69.83999633789062</v>
       </c>
       <c r="F81">
-        <v>69.12383270263672</v>
+        <v>68.48643493652344</v>
       </c>
       <c r="G81">
         <v>233100</v>
@@ -2282,7 +2282,7 @@
         <v>70.36000061035156</v>
       </c>
       <c r="F82">
-        <v>69.63850402832031</v>
+        <v>68.99636077880859</v>
       </c>
       <c r="G82">
         <v>231000</v>
@@ -2305,7 +2305,7 @@
         <v>71.12000274658203</v>
       </c>
       <c r="F83">
-        <v>70.39070892333984</v>
+        <v>69.74163055419922</v>
       </c>
       <c r="G83">
         <v>163800</v>
@@ -2328,7 +2328,7 @@
         <v>70.38999938964844</v>
       </c>
       <c r="F84">
-        <v>69.66819000244141</v>
+        <v>69.02577209472656</v>
       </c>
       <c r="G84">
         <v>263700</v>
@@ -2351,7 +2351,7 @@
         <v>71.27999877929688</v>
       </c>
       <c r="F85">
-        <v>70.54906463623047</v>
+        <v>69.89852905273438</v>
       </c>
       <c r="G85">
         <v>160800</v>
@@ -2374,7 +2374,7 @@
         <v>71.29000091552734</v>
       </c>
       <c r="F86">
-        <v>70.55896759033203</v>
+        <v>69.90834045410156</v>
       </c>
       <c r="G86">
         <v>167200</v>
@@ -2397,7 +2397,7 @@
         <v>72.38999938964844</v>
       </c>
       <c r="F87">
-        <v>71.64768218994141</v>
+        <v>70.98701477050781</v>
       </c>
       <c r="G87">
         <v>225500</v>
@@ -2420,7 +2420,7 @@
         <v>72.93000030517578</v>
       </c>
       <c r="F88">
-        <v>72.18215179443359</v>
+        <v>71.51655578613281</v>
       </c>
       <c r="G88">
         <v>199700</v>
@@ -2443,7 +2443,7 @@
         <v>73.69999694824219</v>
       </c>
       <c r="F89">
-        <v>72.94425201416016</v>
+        <v>72.27162933349609</v>
       </c>
       <c r="G89">
         <v>386400</v>
@@ -2466,7 +2466,7 @@
         <v>73.08000183105469</v>
       </c>
       <c r="F90">
-        <v>72.33061218261719</v>
+        <v>71.66364288330078</v>
       </c>
       <c r="G90">
         <v>309200</v>
@@ -2489,7 +2489,7 @@
         <v>73.47000122070312</v>
       </c>
       <c r="F91">
-        <v>72.71661376953125</v>
+        <v>72.04608917236328</v>
       </c>
       <c r="G91">
         <v>137700</v>
@@ -2512,7 +2512,7 @@
         <v>73</v>
       </c>
       <c r="F92">
-        <v>72.25142669677734</v>
+        <v>71.58518981933594</v>
       </c>
       <c r="G92">
         <v>170700</v>
@@ -2535,7 +2535,7 @@
         <v>73.23000335693359</v>
       </c>
       <c r="F93">
-        <v>72.47907257080078</v>
+        <v>71.81073760986328</v>
       </c>
       <c r="G93">
         <v>182700</v>
@@ -2558,7 +2558,7 @@
         <v>73.62999725341797</v>
       </c>
       <c r="F94">
-        <v>72.87496948242188</v>
+        <v>72.20298004150391</v>
       </c>
       <c r="G94">
         <v>115000</v>
@@ -2581,7 +2581,7 @@
         <v>75.37000274658203</v>
       </c>
       <c r="F95">
-        <v>74.59712982177734</v>
+        <v>73.90926361083984</v>
       </c>
       <c r="G95">
         <v>414700</v>
@@ -2604,7 +2604,7 @@
         <v>75.23000335693359</v>
       </c>
       <c r="F96">
-        <v>74.45856475830078</v>
+        <v>73.77198028564453</v>
       </c>
       <c r="G96">
         <v>173900</v>
@@ -2627,7 +2627,7 @@
         <v>74.44999694824219</v>
       </c>
       <c r="F97">
-        <v>73.68656158447266</v>
+        <v>73.00709533691406</v>
       </c>
       <c r="G97">
         <v>239800</v>
@@ -2650,7 +2650,7 @@
         <v>74.05999755859375</v>
       </c>
       <c r="F98">
-        <v>73.30055999755859</v>
+        <v>72.62464904785156</v>
       </c>
       <c r="G98">
         <v>92300</v>
@@ -2673,7 +2673,7 @@
         <v>74.68000030517578</v>
       </c>
       <c r="F99">
-        <v>73.91419982910156</v>
+        <v>73.23262786865234</v>
       </c>
       <c r="G99">
         <v>206400</v>
@@ -2696,7 +2696,7 @@
         <v>74.93000030517578</v>
       </c>
       <c r="F100">
-        <v>74.16163635253906</v>
+        <v>73.477783203125</v>
       </c>
       <c r="G100">
         <v>172500</v>
@@ -2719,7 +2719,7 @@
         <v>74.18000030517578</v>
       </c>
       <c r="F101">
-        <v>73.41932678222656</v>
+        <v>72.74232482910156</v>
       </c>
       <c r="G101">
         <v>767800</v>
@@ -2742,7 +2742,7 @@
         <v>74.51999664306641</v>
       </c>
       <c r="F102">
-        <v>73.75583648681641</v>
+        <v>73.07572937011719</v>
       </c>
       <c r="G102">
         <v>184000</v>
@@ -2765,7 +2765,7 @@
         <v>72.69000244140625</v>
       </c>
       <c r="F103">
-        <v>71.94461059570312</v>
+        <v>71.28120422363281</v>
       </c>
       <c r="G103">
         <v>673800</v>
@@ -2788,7 +2788,7 @@
         <v>71.31999969482422</v>
       </c>
       <c r="F104">
-        <v>70.58865356445312</v>
+        <v>69.93775177001953</v>
       </c>
       <c r="G104">
         <v>947100</v>
@@ -2811,7 +2811,7 @@
         <v>72.34999847412109</v>
       </c>
       <c r="F105">
-        <v>71.60809326171875</v>
+        <v>70.94779205322266</v>
       </c>
       <c r="G105">
         <v>321900</v>
@@ -2834,7 +2834,7 @@
         <v>73.25</v>
       </c>
       <c r="F106">
-        <v>72.49886322021484</v>
+        <v>71.83034515380859</v>
       </c>
       <c r="G106">
         <v>425700</v>
@@ -2857,7 +2857,7 @@
         <v>74.77999877929688</v>
       </c>
       <c r="F107">
-        <v>74.01317596435547</v>
+        <v>73.33069610595703</v>
       </c>
       <c r="G107">
         <v>989700</v>
@@ -2880,7 +2880,7 @@
         <v>76.19999694824219</v>
       </c>
       <c r="F108">
-        <v>75.41860961914062</v>
+        <v>74.72316741943359</v>
       </c>
       <c r="G108">
         <v>642400</v>
@@ -2903,7 +2903,7 @@
         <v>77.01000213623047</v>
       </c>
       <c r="F109">
-        <v>76.22031402587891</v>
+        <v>75.51747894287109</v>
       </c>
       <c r="G109">
         <v>251500</v>
@@ -2926,7 +2926,7 @@
         <v>77.16000366210938</v>
       </c>
       <c r="F110">
-        <v>76.3687744140625</v>
+        <v>75.66457366943359</v>
       </c>
       <c r="G110">
         <v>145200</v>
@@ -2949,7 +2949,7 @@
         <v>74.76999664306641</v>
       </c>
       <c r="F111">
-        <v>74.00327301025391</v>
+        <v>73.32088470458984</v>
       </c>
       <c r="G111">
         <v>309600</v>
@@ -2972,7 +2972,7 @@
         <v>74.27999877929688</v>
       </c>
       <c r="F112">
-        <v>73.51830291748047</v>
+        <v>72.84038543701172</v>
       </c>
       <c r="G112">
         <v>316900</v>
@@ -2995,7 +2995,7 @@
         <v>75.25</v>
       </c>
       <c r="F113">
-        <v>74.47835540771484</v>
+        <v>73.79158782958984</v>
       </c>
       <c r="G113">
         <v>311700</v>
@@ -3018,7 +3018,7 @@
         <v>76.12999725341797</v>
       </c>
       <c r="F114">
-        <v>75.34933471679688</v>
+        <v>74.65453338623047</v>
       </c>
       <c r="G114">
         <v>969800</v>
@@ -3041,7 +3041,7 @@
         <v>77.95999908447266</v>
       </c>
       <c r="F115">
-        <v>77.16056823730469</v>
+        <v>76.44906616210938</v>
       </c>
       <c r="G115">
         <v>892100</v>
@@ -3064,7 +3064,7 @@
         <v>79.33999633789062</v>
       </c>
       <c r="F116">
-        <v>78.52641296386719</v>
+        <v>77.80231475830078</v>
       </c>
       <c r="G116">
         <v>473300</v>
@@ -3087,7 +3087,7 @@
         <v>77.94999694824219</v>
       </c>
       <c r="F117">
-        <v>77.15066528320312</v>
+        <v>76.43925476074219</v>
       </c>
       <c r="G117">
         <v>401400</v>
@@ -3110,7 +3110,7 @@
         <v>79.04000091552734</v>
       </c>
       <c r="F118">
-        <v>78.2294921875</v>
+        <v>77.50813293457031</v>
       </c>
       <c r="G118">
         <v>455600</v>
@@ -3133,7 +3133,7 @@
         <v>78.09999847412109</v>
       </c>
       <c r="F119">
-        <v>77.29913330078125</v>
+        <v>76.58634948730469</v>
       </c>
       <c r="G119">
         <v>570900</v>
@@ -3156,7 +3156,7 @@
         <v>78.16000366210938</v>
       </c>
       <c r="F120">
-        <v>77.3585205078125</v>
+        <v>76.64519500732422</v>
       </c>
       <c r="G120">
         <v>191700</v>
@@ -3179,7 +3179,7 @@
         <v>78.59999847412109</v>
       </c>
       <c r="F121">
-        <v>77.79400634765625</v>
+        <v>77.07666015625</v>
       </c>
       <c r="G121">
         <v>375800</v>
@@ -3202,7 +3202,7 @@
         <v>78.59999847412109</v>
       </c>
       <c r="F122">
-        <v>77.79400634765625</v>
+        <v>77.07666015625</v>
       </c>
       <c r="G122">
         <v>140200</v>
@@ -3225,7 +3225,7 @@
         <v>77.08000183105469</v>
       </c>
       <c r="F123">
-        <v>76.28959655761719</v>
+        <v>75.58612060546875</v>
       </c>
       <c r="G123">
         <v>421900</v>
@@ -3248,7 +3248,7 @@
         <v>77.5</v>
       </c>
       <c r="F124">
-        <v>76.70528411865234</v>
+        <v>75.99797821044922</v>
       </c>
       <c r="G124">
         <v>502800</v>
@@ -3271,7 +3271,7 @@
         <v>75.08999633789062</v>
       </c>
       <c r="F125">
-        <v>74.31999206542969</v>
+        <v>73.63468170166016</v>
       </c>
       <c r="G125">
         <v>676000</v>
@@ -3294,7 +3294,7 @@
         <v>72.41000366210938</v>
       </c>
       <c r="F126">
-        <v>72.41000366210938</v>
+        <v>71.74230194091797</v>
       </c>
       <c r="G126">
         <v>465700</v>
@@ -3317,7 +3317,7 @@
         <v>73.26000213623047</v>
       </c>
       <c r="F127">
-        <v>73.26000213623047</v>
+        <v>72.58446502685547</v>
       </c>
       <c r="G127">
         <v>410600</v>
@@ -3340,7 +3340,7 @@
         <v>74.66000366210938</v>
       </c>
       <c r="F128">
-        <v>74.66000366210938</v>
+        <v>73.9715576171875</v>
       </c>
       <c r="G128">
         <v>427200</v>
@@ -3363,7 +3363,7 @@
         <v>75.41000366210938</v>
       </c>
       <c r="F129">
-        <v>75.41000366210938</v>
+        <v>74.71464538574219</v>
       </c>
       <c r="G129">
         <v>241700</v>
@@ -3386,7 +3386,7 @@
         <v>75.73000335693359</v>
       </c>
       <c r="F130">
-        <v>75.73000335693359</v>
+        <v>75.03169250488281</v>
       </c>
       <c r="G130">
         <v>462400</v>
@@ -3409,7 +3409,7 @@
         <v>75.25</v>
       </c>
       <c r="F131">
-        <v>75.25</v>
+        <v>74.55611419677734</v>
       </c>
       <c r="G131">
         <v>123500</v>
@@ -3432,7 +3432,7 @@
         <v>75.61000061035156</v>
       </c>
       <c r="F132">
-        <v>75.61000061035156</v>
+        <v>74.91279602050781</v>
       </c>
       <c r="G132">
         <v>107100</v>
@@ -3455,7 +3455,7 @@
         <v>76.68000030517578</v>
       </c>
       <c r="F133">
-        <v>76.68000030517578</v>
+        <v>75.97293090820312</v>
       </c>
       <c r="G133">
         <v>673800</v>
@@ -3478,7 +3478,7 @@
         <v>77.19000244140625</v>
       </c>
       <c r="F134">
-        <v>77.19000244140625</v>
+        <v>76.47822570800781</v>
       </c>
       <c r="G134">
         <v>278100</v>
@@ -3501,7 +3501,7 @@
         <v>75.70999908447266</v>
       </c>
       <c r="F135">
-        <v>75.70999908447266</v>
+        <v>75.01187133789062</v>
       </c>
       <c r="G135">
         <v>257600</v>
@@ -3524,7 +3524,7 @@
         <v>77.41000366210938</v>
       </c>
       <c r="F136">
-        <v>77.41000366210938</v>
+        <v>76.69619750976562</v>
       </c>
       <c r="G136">
         <v>636900</v>
@@ -3547,7 +3547,7 @@
         <v>77.48999786376953</v>
       </c>
       <c r="F137">
-        <v>77.48999786376953</v>
+        <v>76.77545928955078</v>
       </c>
       <c r="G137">
         <v>145000</v>
@@ -3570,7 +3570,7 @@
         <v>76.58000183105469</v>
       </c>
       <c r="F138">
-        <v>76.58000183105469</v>
+        <v>75.87384796142578</v>
       </c>
       <c r="G138">
         <v>142700</v>
@@ -3593,7 +3593,7 @@
         <v>75.69999694824219</v>
       </c>
       <c r="F139">
-        <v>75.69999694824219</v>
+        <v>75.00196075439453</v>
       </c>
       <c r="G139">
         <v>141100</v>
@@ -3616,7 +3616,7 @@
         <v>75.41000366210938</v>
       </c>
       <c r="F140">
-        <v>75.41000366210938</v>
+        <v>74.71464538574219</v>
       </c>
       <c r="G140">
         <v>251900</v>
@@ -3639,7 +3639,7 @@
         <v>75.15000152587891</v>
       </c>
       <c r="F141">
-        <v>75.15000152587891</v>
+        <v>74.45703887939453</v>
       </c>
       <c r="G141">
         <v>144000</v>
@@ -3662,7 +3662,7 @@
         <v>73.72000122070312</v>
       </c>
       <c r="F142">
-        <v>73.72000122070312</v>
+        <v>73.04022216796875</v>
       </c>
       <c r="G142">
         <v>377300</v>
@@ -3685,7 +3685,7 @@
         <v>74.63999938964844</v>
       </c>
       <c r="F143">
-        <v>74.63999938964844</v>
+        <v>73.95173645019531</v>
       </c>
       <c r="G143">
         <v>614400</v>
@@ -3708,7 +3708,7 @@
         <v>75.51999664306641</v>
       </c>
       <c r="F144">
-        <v>75.51999664306641</v>
+        <v>74.82362365722656</v>
       </c>
       <c r="G144">
         <v>297800</v>
@@ -3731,7 +3731,7 @@
         <v>76.18000030517578</v>
       </c>
       <c r="F145">
-        <v>76.18000030517578</v>
+        <v>75.4775390625</v>
       </c>
       <c r="G145">
         <v>369600</v>
@@ -3754,7 +3754,7 @@
         <v>76.65000152587891</v>
       </c>
       <c r="F146">
-        <v>76.65000152587891</v>
+        <v>75.94320678710938</v>
       </c>
       <c r="G146">
         <v>217800</v>
@@ -3777,7 +3777,7 @@
         <v>77.76999664306641</v>
       </c>
       <c r="F147">
-        <v>77.76999664306641</v>
+        <v>77.05287170410156</v>
       </c>
       <c r="G147">
         <v>437200</v>
@@ -3800,7 +3800,7 @@
         <v>78.81999969482422</v>
       </c>
       <c r="F148">
-        <v>78.81999969482422</v>
+        <v>78.09319305419922</v>
       </c>
       <c r="G148">
         <v>873900</v>
@@ -3823,7 +3823,7 @@
         <v>82.44999694824219</v>
       </c>
       <c r="F149">
-        <v>82.44999694824219</v>
+        <v>81.68972015380859</v>
       </c>
       <c r="G149">
         <v>1434600</v>
@@ -3846,7 +3846,7 @@
         <v>83.47000122070312</v>
       </c>
       <c r="F150">
-        <v>83.47000122070312</v>
+        <v>82.7003173828125</v>
       </c>
       <c r="G150">
         <v>1023100</v>
@@ -3869,7 +3869,7 @@
         <v>80.69999694824219</v>
       </c>
       <c r="F151">
-        <v>80.69999694824219</v>
+        <v>79.95585632324219</v>
       </c>
       <c r="G151">
         <v>743200</v>
@@ -3892,7 +3892,7 @@
         <v>79.41000366210938</v>
       </c>
       <c r="F152">
-        <v>79.41000366210938</v>
+        <v>78.67775726318359</v>
       </c>
       <c r="G152">
         <v>517300</v>
@@ -3915,7 +3915,7 @@
         <v>78.98999786376953</v>
       </c>
       <c r="F153">
-        <v>78.98999786376953</v>
+        <v>78.26162719726562</v>
       </c>
       <c r="G153">
         <v>686000</v>
@@ -3938,7 +3938,7 @@
         <v>80.16000366210938</v>
       </c>
       <c r="F154">
-        <v>80.16000366210938</v>
+        <v>79.42084503173828</v>
       </c>
       <c r="G154">
         <v>586600</v>
@@ -3961,7 +3961,7 @@
         <v>80.68000030517578</v>
       </c>
       <c r="F155">
-        <v>80.68000030517578</v>
+        <v>79.93604278564453</v>
       </c>
       <c r="G155">
         <v>191200</v>
@@ -3984,7 +3984,7 @@
         <v>81.36000061035156</v>
       </c>
       <c r="F156">
-        <v>81.36000061035156</v>
+        <v>80.60977172851562</v>
       </c>
       <c r="G156">
         <v>501200</v>
@@ -4007,7 +4007,7 @@
         <v>82.26000213623047</v>
       </c>
       <c r="F157">
-        <v>82.26000213623047</v>
+        <v>81.50148010253906</v>
       </c>
       <c r="G157">
         <v>534700</v>
@@ -4030,7 +4030,7 @@
         <v>81.34999847412109</v>
       </c>
       <c r="F158">
-        <v>81.34999847412109</v>
+        <v>80.59986114501953</v>
       </c>
       <c r="G158">
         <v>606100</v>
@@ -4053,7 +4053,7 @@
         <v>81.95999908447266</v>
       </c>
       <c r="F159">
-        <v>81.95999908447266</v>
+        <v>81.20423889160156</v>
       </c>
       <c r="G159">
         <v>504500</v>
@@ -4076,7 +4076,7 @@
         <v>82.51999664306641</v>
       </c>
       <c r="F160">
-        <v>82.51999664306641</v>
+        <v>81.75907135009766</v>
       </c>
       <c r="G160">
         <v>279800</v>
@@ -4099,7 +4099,7 @@
         <v>83.59999847412109</v>
       </c>
       <c r="F161">
-        <v>83.59999847412109</v>
+        <v>82.82911682128906</v>
       </c>
       <c r="G161">
         <v>435900</v>
@@ -4122,7 +4122,7 @@
         <v>83.58999633789062</v>
       </c>
       <c r="F162">
-        <v>83.58999633789062</v>
+        <v>82.81920623779297</v>
       </c>
       <c r="G162">
         <v>283200</v>
@@ -4145,7 +4145,7 @@
         <v>82.11000061035156</v>
       </c>
       <c r="F163">
-        <v>82.11000061035156</v>
+        <v>81.35285949707031</v>
       </c>
       <c r="G163">
         <v>678100</v>
@@ -4168,7 +4168,7 @@
         <v>82.90000152587891</v>
       </c>
       <c r="F164">
-        <v>82.90000152587891</v>
+        <v>82.13557434082031</v>
       </c>
       <c r="G164">
         <v>245000</v>
@@ -4191,7 +4191,7 @@
         <v>82.59999847412109</v>
       </c>
       <c r="F165">
-        <v>82.59999847412109</v>
+        <v>81.83834075927734</v>
       </c>
       <c r="G165">
         <v>259900</v>
@@ -4214,7 +4214,7 @@
         <v>82.09999847412109</v>
       </c>
       <c r="F166">
-        <v>82.09999847412109</v>
+        <v>81.34294891357422</v>
       </c>
       <c r="G166">
         <v>270600</v>
@@ -4237,7 +4237,7 @@
         <v>82.23000335693359</v>
       </c>
       <c r="F167">
-        <v>82.23000335693359</v>
+        <v>81.47175598144531</v>
       </c>
       <c r="G167">
         <v>144600</v>
@@ -4260,7 +4260,7 @@
         <v>81.84999847412109</v>
       </c>
       <c r="F168">
-        <v>81.84999847412109</v>
+        <v>81.09525299072266</v>
       </c>
       <c r="G168">
         <v>190600</v>
@@ -4283,7 +4283,7 @@
         <v>80.63999938964844</v>
       </c>
       <c r="F169">
-        <v>80.63999938964844</v>
+        <v>79.89640808105469</v>
       </c>
       <c r="G169">
         <v>263400</v>
